--- a/F-SEK Update 24092015 Final.xlsx
+++ b/F-SEK Update 24092015 Final.xlsx
@@ -868,10 +868,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1871,11 +1871,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1903,8 +1903,8 @@
   </sheetPr>
   <dimension ref="B1:AU309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K276" sqref="K276"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="AB196" sqref="AB196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.71428571428571" defaultRowHeight="18" customHeight="1"/>
@@ -8792,7 +8792,7 @@
     <mergeCell ref="D251:G252"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="256" scale="75" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
